--- a/intructions.xlsx
+++ b/intructions.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cho_datascientist\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c726fef875fe7e03/Documentos/Bitrix24/CHOHO/MVP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{967266F4-1D27-45E5-AEE9-F6D4B676A98B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{967266F4-1D27-45E5-AEE9-F6D4B676A98B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07EEAE8E-D3BB-4959-AC44-B76973B0DA2C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EFF7682A-1D31-40AB-B178-FAF1BBEE8F82}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{EFF7682A-1D31-40AB-B178-FAF1BBEE8F82}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
-    <sheet name="Hoja1" sheetId="1" r:id="rId2"/>
+    <sheet name="Intrucciones" sheetId="2" r:id="rId1"/>
+    <sheet name="Ejemplo" sheetId="1" r:id="rId2"/>
+    <sheet name="Datos" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Hoja1!$A$1:$H$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Ejemplo!$A$1:$H$53</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="54">
   <si>
     <t>fecha</t>
   </si>
@@ -205,7 +206,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="#,###,##0.00"/>
+    <numFmt numFmtId="164" formatCode="#,###,##0.00"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -256,7 +257,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
@@ -575,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A756724-9F2A-4E42-A0BF-B4931332C638}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -663,7 +664,7 @@
   <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -723,6 +724,9 @@
       <c r="G2" s="3">
         <v>35000</v>
       </c>
+      <c r="H2">
+        <v>40</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -746,6 +750,9 @@
       <c r="G3" s="3">
         <v>19500</v>
       </c>
+      <c r="H3">
+        <v>51</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
@@ -769,6 +776,9 @@
       <c r="G4" s="3">
         <v>412000</v>
       </c>
+      <c r="H4">
+        <v>34</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -792,6 +802,9 @@
       <c r="G5" s="3">
         <v>523000</v>
       </c>
+      <c r="H5">
+        <v>45</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -815,6 +828,9 @@
       <c r="G6" s="3">
         <v>398000</v>
       </c>
+      <c r="H6">
+        <v>40</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
@@ -838,6 +854,9 @@
       <c r="G7" s="3">
         <v>14700</v>
       </c>
+      <c r="H7">
+        <v>58</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -861,6 +880,9 @@
       <c r="G8" s="3">
         <v>14700</v>
       </c>
+      <c r="H8">
+        <v>55</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -884,6 +906,9 @@
       <c r="G9" s="3">
         <v>18900</v>
       </c>
+      <c r="H9">
+        <v>24</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -907,6 +932,9 @@
       <c r="G10" s="3">
         <v>14700</v>
       </c>
+      <c r="H10">
+        <v>48</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -930,6 +958,9 @@
       <c r="G11" s="3">
         <v>19500</v>
       </c>
+      <c r="H11">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
@@ -953,6 +984,9 @@
       <c r="G12" s="3">
         <v>578000</v>
       </c>
+      <c r="H12">
+        <v>50</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
@@ -976,6 +1010,9 @@
       <c r="G13" s="3">
         <v>412000</v>
       </c>
+      <c r="H13">
+        <v>32</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
@@ -999,6 +1036,9 @@
       <c r="G14" s="3">
         <v>398000</v>
       </c>
+      <c r="H14">
+        <v>34</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -1022,6 +1062,9 @@
       <c r="G15" s="3">
         <v>398000</v>
       </c>
+      <c r="H15">
+        <v>33</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
@@ -1045,8 +1088,11 @@
       <c r="G16" s="3">
         <v>578000</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>44533</v>
       </c>
@@ -1068,8 +1114,11 @@
       <c r="G17" s="3">
         <v>67000</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>44533</v>
       </c>
@@ -1091,8 +1140,11 @@
       <c r="G18" s="3">
         <v>18900</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>44533</v>
       </c>
@@ -1114,8 +1166,11 @@
       <c r="G19" s="3">
         <v>14700</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>44533</v>
       </c>
@@ -1137,8 +1192,11 @@
       <c r="G20" s="3">
         <v>14700</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>44532</v>
       </c>
@@ -1160,8 +1218,11 @@
       <c r="G21" s="3">
         <v>14700</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>44539</v>
       </c>
@@ -1183,8 +1244,11 @@
       <c r="G22" s="3">
         <v>19900</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>44540</v>
       </c>
@@ -1206,8 +1270,11 @@
       <c r="G23" s="3">
         <v>523000</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>44537</v>
       </c>
@@ -1229,8 +1296,11 @@
       <c r="G24" s="3">
         <v>19500</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>44536</v>
       </c>
@@ -1252,8 +1322,11 @@
       <c r="G25" s="3">
         <v>19500</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>44532</v>
       </c>
@@ -1275,8 +1348,11 @@
       <c r="G26" s="3">
         <v>14700</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>44532</v>
       </c>
@@ -1298,8 +1374,11 @@
       <c r="G27" s="3">
         <v>14700</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>44539</v>
       </c>
@@ -1321,8 +1400,11 @@
       <c r="G28" s="3">
         <v>398000</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>44533</v>
       </c>
@@ -1344,8 +1426,11 @@
       <c r="G29" s="3">
         <v>35000</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>44533</v>
       </c>
@@ -1367,8 +1452,11 @@
       <c r="G30" s="3">
         <v>35000</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>44533</v>
       </c>
@@ -1390,8 +1478,11 @@
       <c r="G31" s="3">
         <v>27000</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>44533</v>
       </c>
@@ -1413,8 +1504,11 @@
       <c r="G32" s="3">
         <v>19500</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>44533</v>
       </c>
@@ -1436,8 +1530,11 @@
       <c r="G33" s="3">
         <v>523000</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>44532</v>
       </c>
@@ -1459,8 +1556,11 @@
       <c r="G34" s="3">
         <v>35000</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>44536</v>
       </c>
@@ -1468,7 +1568,7 @@
         <v>30</v>
       </c>
       <c r="C35" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D35" t="s">
         <v>4</v>
@@ -1482,8 +1582,11 @@
       <c r="G35" s="3">
         <v>412000</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>44536</v>
       </c>
@@ -1505,8 +1608,11 @@
       <c r="G36" s="3">
         <v>398000</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>44536</v>
       </c>
@@ -1528,8 +1634,11 @@
       <c r="G37" s="3">
         <v>412000</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>44539</v>
       </c>
@@ -1551,8 +1660,11 @@
       <c r="G38" s="3">
         <v>35000</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>44540</v>
       </c>
@@ -1574,8 +1686,11 @@
       <c r="G39" s="3">
         <v>412000</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>44536</v>
       </c>
@@ -1597,8 +1712,11 @@
       <c r="G40" s="3">
         <v>41200</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>44537</v>
       </c>
@@ -1620,8 +1738,11 @@
       <c r="G41" s="3">
         <v>398000</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>44536</v>
       </c>
@@ -1643,8 +1764,11 @@
       <c r="G42" s="3">
         <v>523000</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>44539</v>
       </c>
@@ -1666,8 +1790,11 @@
       <c r="G43" s="3">
         <v>27000</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H43">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>44539</v>
       </c>
@@ -1689,8 +1816,11 @@
       <c r="G44" s="3">
         <v>35000</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H44">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>44539</v>
       </c>
@@ -1712,8 +1842,11 @@
       <c r="G45" s="3">
         <v>27000</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H45">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>44533</v>
       </c>
@@ -1735,8 +1868,11 @@
       <c r="G46" s="3">
         <v>398000</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H46">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>44539</v>
       </c>
@@ -1758,8 +1894,11 @@
       <c r="G47" s="3">
         <v>578000</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H47">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>44533</v>
       </c>
@@ -1781,8 +1920,11 @@
       <c r="G48" s="3">
         <v>578000</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H48">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>44539</v>
       </c>
@@ -1804,8 +1946,11 @@
       <c r="G49" s="3">
         <v>398000</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H49">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>44537</v>
       </c>
@@ -1827,8 +1972,11 @@
       <c r="G50" s="3">
         <v>412000</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H50">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>44540</v>
       </c>
@@ -1850,8 +1998,11 @@
       <c r="G51" s="3">
         <v>35000</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H51">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>44540</v>
       </c>
@@ -1873,8 +2024,11 @@
       <c r="G52" s="3">
         <v>35000</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H52">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>44540</v>
       </c>
@@ -1895,10 +2049,54 @@
       </c>
       <c r="G53" s="3">
         <v>19500</v>
+      </c>
+      <c r="H53">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H53" xr:uid="{C07F4E77-77A9-4A10-BDF7-59F93C7CEA40}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06792D04-B856-43B6-960D-15F761E748B1}">
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>